--- a/data/trans_orig/P14C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EE6CF2-DBB5-4A05-980A-9DF9BBD3D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F92D01-DB5A-45C2-BD15-A5D17061D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E8CA8A1-EF63-4AD7-ABDE-57CB036F40F8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{522889E4-119B-4120-8AD2-CF423DD14B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="156">
   <si>
     <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>72,63%</t>
   </si>
   <si>
-    <t>29,23%</t>
+    <t>30,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>42,2%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,19 +104,16 @@
     <t>82,19%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
     <t>23,25%</t>
   </si>
   <si>
     <t>34,43%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,22 +122,19 @@
     <t>17,81%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>70,77%</t>
+    <t>69,16%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,7 +188,7 @@
     <t>22,96%</t>
   </si>
   <si>
-    <t>82,43%</t>
+    <t>81,75%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -206,7 +200,7 @@
     <t>77,04%</t>
   </si>
   <si>
-    <t>17,57%</t>
+    <t>18,25%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -221,13 +215,13 @@
     <t>91,83%</t>
   </si>
   <si>
-    <t>58,23%</t>
+    <t>61,83%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>63,87%</t>
+    <t>65,31%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -242,13 +236,13 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>41,77%</t>
+    <t>38,17%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>36,13%</t>
+    <t>34,69%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -272,10 +266,10 @@
     <t>61,92%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>38,11%</t>
@@ -284,13 +278,13 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>90,49%</t>
+    <t>73,56%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>78,52%</t>
+    <t>67,18%</t>
   </si>
   <si>
     <t>19,75%</t>
@@ -302,7 +296,7 @@
     <t>12,77%</t>
   </si>
   <si>
-    <t>59,24%</t>
+    <t>60,19%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -380,19 +374,19 @@
     <t>47,67%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -401,112 +395,112 @@
     <t>43,05%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>52,04%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>74,18%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661735C3-0C3F-4696-9FFA-7A6037B09BAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398C72FE-6CE7-48E2-9080-CD5EF73B95EC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1099,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -1117,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1126,19 +1120,19 @@
         <v>4293</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1147,13 +1141,13 @@
         <v>930</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1162,13 +1156,13 @@
         <v>1984</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1177,13 +1171,13 @@
         <v>2914</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1198,13 +1192,13 @@
         <v>5224</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1213,13 +1207,13 @@
         <v>7247</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1228,18 +1222,18 @@
         <v>12470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1251,7 +1245,7 @@
         <v>1034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -1266,7 +1260,7 @@
         <v>2923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -1281,10 +1275,10 @@
         <v>3958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -1308,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1317,7 +1311,7 @@
         <v>962</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
@@ -1332,19 +1326,19 @@
         <v>962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1353,7 +1347,7 @@
         <v>1017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -1383,13 +1377,13 @@
         <v>1016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,13 +1398,13 @@
         <v>2051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1419,13 +1413,13 @@
         <v>3885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1434,18 +1428,18 @@
         <v>5936</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1463,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1472,7 +1466,7 @@
         <v>1115</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
@@ -1487,13 +1481,13 @@
         <v>1115</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,10 +1505,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1523,7 +1517,7 @@
         <v>885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
@@ -1538,10 +1532,10 @@
         <v>3742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -1550,7 +1544,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1565,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1580,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1595,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1604,13 @@
         <v>2858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -1625,13 +1619,13 @@
         <v>2000</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -1640,18 +1634,18 @@
         <v>4857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1666,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1678,10 +1672,10 @@
         <v>10565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1693,10 +1687,10 @@
         <v>11538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -1720,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1735,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1750,13 +1744,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1771,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1780,13 +1774,13 @@
         <v>940</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1795,13 +1789,13 @@
         <v>940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1810,13 @@
         <v>973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -1831,13 +1825,13 @@
         <v>11505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -1846,18 +1840,18 @@
         <v>12478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1867,13 +1861,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -1885,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1900,10 +1894,10 @@
         <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1910,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1958,20 +1952,20 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2014,13 +2008,13 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2029,13 +2023,13 @@
         <v>4189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2044,18 +2038,18 @@
         <v>4189</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2067,7 +2061,7 @@
         <v>1613</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
@@ -2082,7 +2076,7 @@
         <v>2951</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -2097,13 +2091,13 @@
         <v>4564</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +2112,7 @@
         <v>993</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -2133,13 +2127,13 @@
         <v>873</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2148,19 +2142,19 @@
         <v>1866</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2175,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2184,13 +2178,13 @@
         <v>941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2199,13 +2193,13 @@
         <v>941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2214,13 @@
         <v>2606</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -2235,13 +2229,13 @@
         <v>4765</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -2250,18 +2244,18 @@
         <v>7371</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2273,7 +2267,7 @@
         <v>1967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -2288,13 +2282,13 @@
         <v>6779</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -2303,13 +2297,13 @@
         <v>8746</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2318,13 @@
         <v>1116</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2339,13 +2333,13 @@
         <v>4213</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2354,19 +2348,19 @@
         <v>5329</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -2375,13 +2369,13 @@
         <v>1095</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2390,13 +2384,13 @@
         <v>1026</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2405,13 +2399,13 @@
         <v>2120</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2420,13 @@
         <v>4178</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -2441,13 +2435,13 @@
         <v>12018</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -2456,18 +2450,18 @@
         <v>16195</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2482,10 +2476,10 @@
         <v>16</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2494,13 +2488,13 @@
         <v>4825</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -2509,13 +2503,13 @@
         <v>12341</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2545,13 +2539,13 @@
         <v>4358</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -2560,19 +2554,19 @@
         <v>4358</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2587,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2596,13 +2590,13 @@
         <v>940</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2611,13 +2605,13 @@
         <v>940</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2626,13 @@
         <v>7516</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -2647,13 +2641,13 @@
         <v>10123</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -2662,13 +2656,13 @@
         <v>17639</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2679,13 @@
         <v>13103</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -2700,13 +2694,13 @@
         <v>38611</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -2715,13 +2709,13 @@
         <v>51714</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2730,13 @@
         <v>9260</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -2751,13 +2745,13 @@
         <v>11291</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -2766,19 +2760,19 @@
         <v>20550</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -2787,13 +2781,13 @@
         <v>3042</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -2802,13 +2796,13 @@
         <v>5830</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -2817,13 +2811,13 @@
         <v>8872</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2832,13 @@
         <v>25404</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H39" s="7">
         <v>51</v>
@@ -2853,13 +2847,13 @@
         <v>55732</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M39" s="7">
         <v>73</v>
@@ -2868,18 +2862,18 @@
         <v>81136</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C05-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F92D01-DB5A-45C2-BD15-A5D17061D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19FE186-FE20-48FA-AC5F-AE376D394E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{522889E4-119B-4120-8AD2-CF423DD14B0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B11AA471-01F2-40C4-946A-655140860C7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="156">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la colitis en 2015 (Tasa respuesta: 1,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,7 +83,7 @@
     <t>72,63%</t>
   </si>
   <si>
-    <t>30,84%</t>
+    <t>27,78%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>42,2%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,10 +110,10 @@
     <t>34,43%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,16 +125,16 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>69,16%</t>
+    <t>72,22%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,7 +152,7 @@
     <t>66,67%</t>
   </si>
   <si>
-    <t>16,53%</t>
+    <t>32,08%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -164,7 +164,7 @@
     <t>16,2%</t>
   </si>
   <si>
-    <t>65,64%</t>
+    <t>65,57%</t>
   </si>
   <si>
     <t>49,57%</t>
@@ -173,7 +173,7 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>68,19%</t>
+    <t>67,9%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,7 +188,7 @@
     <t>22,96%</t>
   </si>
   <si>
-    <t>81,75%</t>
+    <t>83,46%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -200,7 +200,7 @@
     <t>77,04%</t>
   </si>
   <si>
-    <t>18,25%</t>
+    <t>16,54%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -215,13 +215,13 @@
     <t>91,83%</t>
   </si>
   <si>
-    <t>61,83%</t>
+    <t>62,92%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>65,31%</t>
+    <t>64,89%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -236,13 +236,13 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>38,17%</t>
+    <t>37,08%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>34,69%</t>
+    <t>35,11%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -266,10 +266,10 @@
     <t>61,92%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>38,11%</t>
@@ -278,13 +278,13 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>73,56%</t>
+    <t>95,48%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>67,18%</t>
+    <t>74,21%</t>
   </si>
   <si>
     <t>19,75%</t>
@@ -296,7 +296,7 @@
     <t>12,77%</t>
   </si>
   <si>
-    <t>60,19%</t>
+    <t>53,08%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -308,19 +308,19 @@
     <t>56,41%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>26,71%</t>
@@ -332,19 +332,19 @@
     <t>35,06%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>26,2%</t>
@@ -356,13 +356,13 @@
     <t>8,54%</t>
   </si>
   <si>
-    <t>38,1%</t>
+    <t>36,58%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>40,12%</t>
+    <t>36,29%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -374,19 +374,19 @@
     <t>47,67%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -395,94 +395,88 @@
     <t>43,05%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>10,97%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>51,14%</t>
+    <t>39,79%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>28,15%</t>
+    <t>23,56%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>10,46%</t>
@@ -491,16 +485,16 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>20,82%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398C72FE-6CE7-48E2-9080-CD5EF73B95EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC068FA0-E638-4EB3-9EE9-A487573699AA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2545,7 +2539,7 @@
         <v>119</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -2554,13 +2548,13 @@
         <v>4358</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2584,13 @@
         <v>940</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2605,13 +2599,13 @@
         <v>940</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2673,13 @@
         <v>13103</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -2694,13 +2688,13 @@
         <v>38611</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -2709,13 +2703,13 @@
         <v>51714</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2724,13 @@
         <v>9260</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -2745,13 +2739,13 @@
         <v>11291</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -2760,13 +2754,13 @@
         <v>20550</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2775,13 @@
         <v>3042</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -2796,13 +2790,13 @@
         <v>5830</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -2811,13 +2805,13 @@
         <v>8872</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2867,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
